--- a/biology/Zoologie/Ariadna_tarsalis/Ariadna_tarsalis.xlsx
+++ b/biology/Zoologie/Ariadna_tarsalis/Ariadna_tarsalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ariadna tarsalis est une espèce d'araignées aranéomorphes de la famille des Segestriidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ariadna tarsalis est une espèce d'araignées aranéomorphes de la famille des Segestriidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Équateur y compris aux îles Galápagos et au Pérou[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Équateur y compris aux îles Galápagos et au Pérou.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Giroti et Brescovit en 2018 mesure 8,08 mm et la femelle 9,52 mm, les mâles mesurent de 5,04 à 8,08 mm et les femelles de 7,4 à 12,8 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Giroti et Brescovit en 2018 mesure 8,08 mm et la femelle 9,52 mm, les mâles mesurent de 5,04 à 8,08 mm et les femelles de 7,4 à 12,8 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ariadna peruviana a été décrite par Beatty en  1970 et placée en synonymie avec Ariadna tarsalis dans un addendum au même article[3]. Ariadna murphyi[4] a été placée en synonymie avec Ariadna tarsalis par Giroti et Brescovit en 2018[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ariadna peruviana a été décrite par Beatty en  1970 et placée en synonymie avec Ariadna tarsalis dans un addendum au même article. Ariadna murphyi a été placée en synonymie avec Ariadna tarsalis par Giroti et Brescovit en 2018.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Banks, 1902 : Papers from the Hopkins Stanford Galapagos Expedition; 1898-1899. VII. Entomological Results (6). Arachnida. With field notes by Robert E. Snodgrass. Proceedings of the Washington Academy of Science, vol. 4, p. 49-86 (texte intégral).</t>
         </is>
